--- a/biology/Botanique/Amélanchier_gracieux/Amélanchier_gracieux.xlsx
+++ b/biology/Botanique/Amélanchier_gracieux/Amélanchier_gracieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_gracieux</t>
+          <t>Amélanchier_gracieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier amabilis
 L’Amélanchier gracieux (Amelanchier amabilis) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste dont les fruits sont noir violacé brillant.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_gracieux</t>
+          <t>Amélanchier_gracieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs sources considèrent ce taxon comme invalide et lui préfère Amelanchier sanguinea (Pursh) DC., 1825.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_gracieux</t>
+          <t>Amélanchier_gracieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 janvier 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 janvier 2020) :
 variété Amelanchier sanguinea var. gaspensis</t>
         </is>
       </c>
